--- a/kontakt/TelefonniSeznamWeb.xlsx
+++ b/kontakt/TelefonniSeznamWeb.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{641366CF-3446-4C31-B9DC-AF29125498D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6145AB7F-AE60-444B-87ED-3B92FBE1A3FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" r:id="rId1"/>
@@ -510,9 +510,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -529,9 +526,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -835,756 +835,756 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:D53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>22</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>72</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="10"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>94</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>82</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>73</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>69</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>79</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="9" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="9" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>91</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="10"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="9" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>98</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="10"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>77</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>95</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="10"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>97</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="9" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="9" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>93</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="9" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="9" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <v>99</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>76</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>74</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="10"/>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>80</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="10"/>
+      <c r="E32" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="9">
         <v>78</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="9">
         <v>71</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <v>83</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>92</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>75</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <v>65</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>66</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="10"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <v>70</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="10"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <v>81</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="10"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>84</v>
       </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="10"/>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <v>85</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="10"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <v>86</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="10"/>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="9">
         <v>87</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="10"/>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="9">
         <v>88</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <v>89</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="10"/>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <v>90</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="10"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="9">
         <v>96</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="10"/>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="10"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="11"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="11"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E54" s="5"/>
     </row>
   </sheetData>
